--- a/TestData/ApplicationTestData.xlsx
+++ b/TestData/ApplicationTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B776AB92-9E36-43BB-9C8E-ABF685889560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2109863-9438-44ED-B446-30F186B26249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="750" windowWidth="20445" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>ServiceEndpointURL</t>
   </si>
@@ -47,6 +47,54 @@
   </si>
   <si>
     <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>VerifyAstronomyPictureOfTheDayWithValidKey</t>
+  </si>
+  <si>
+    <t>TyBDqI0wL9gqqA9jR6Qls0grxWopexehbpEHOsY</t>
+  </si>
+  <si>
+    <t>VerifyAstronomyPictureOfTheDayWithInValidKey</t>
+  </si>
+  <si>
+    <t>VerifyAstronomyPictureOfTheDayWithInValidRequest</t>
+  </si>
+  <si>
+    <t>/planetary/apo</t>
+  </si>
+  <si>
+    <t>ExpectedResponse</t>
+  </si>
+  <si>
+    <t>API_KEY_INVALID</t>
+  </si>
+  <si>
+    <t>Page not found</t>
+  </si>
+  <si>
+    <t>VerifyAstronomyPictureOfTheDayWithInValidDateFormat</t>
+  </si>
+  <si>
+    <t>does not match format</t>
+  </si>
+  <si>
+    <t>2022/01/06</t>
+  </si>
+  <si>
+    <t>2022/01/07</t>
+  </si>
+  <si>
+    <t>Date must be between Jun 16, 1995</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-07</t>
+  </si>
+  <si>
+    <t>VerifyAstronomyPictureOfTheDayWithInValidDate</t>
   </si>
 </sst>
 </file>
@@ -380,55 +428,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="1">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>403</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>404</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>400</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>400</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
